--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_269__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_269__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,7 +5873,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>8.770896911621094</c:v>
+                  <c:v>8.77089786529541</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24.8314037322998</c:v>
@@ -5882,13 +5882,13 @@
                   <c:v>22.48426628112793</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.66695213317871</c:v>
+                  <c:v>16.66695022583008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.54201316833496</c:v>
+                  <c:v>23.54201507568359</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.34885787963867</c:v>
+                  <c:v>28.3488597869873</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>40.49230194091797</c:v>
@@ -5897,19 +5897,19 @@
                   <c:v>30.55186462402344</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.11354827880859</c:v>
+                  <c:v>16.11355018615723</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.77088165283203</c:v>
+                  <c:v>18.77088356018066</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.69241714477539</c:v>
+                  <c:v>24.69242095947266</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.73189735412598</c:v>
+                  <c:v>11.73189640045166</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.18961906433105</c:v>
+                  <c:v>17.18961715698242</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>16.84171485900879</c:v>
@@ -5921,70 +5921,70 @@
                   <c:v>12.99035453796387</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.21283721923828</c:v>
+                  <c:v>21.21284103393555</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.17473030090332</c:v>
+                  <c:v>13.174729347229</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.35260772705078</c:v>
+                  <c:v>18.35260391235352</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>18.7812557220459</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.29718208312988</c:v>
+                  <c:v>23.29718399047852</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18.43661308288574</c:v>
+                  <c:v>18.43661499023438</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>31.95320892333984</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27.17953681945801</c:v>
+                  <c:v>27.17953491210938</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>7.342381477355957</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>37.71633529663086</c:v>
+                  <c:v>37.71633911132812</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16.5139217376709</c:v>
+                  <c:v>16.51391983032227</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.02680015563965</c:v>
+                  <c:v>11.02680110931396</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30.58891868591309</c:v>
+                  <c:v>30.58891677856445</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.67460536956787</c:v>
+                  <c:v>15.67461013793945</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16.38606071472168</c:v>
+                  <c:v>16.38605880737305</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>11.79393196105957</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21.95420074462891</c:v>
+                  <c:v>21.95419883728027</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>18.5687084197998</c:v>
+                  <c:v>18.56871032714844</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>22.78122138977051</c:v>
+                  <c:v>22.78121948242188</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37.5985221862793</c:v>
+                  <c:v>37.59851837158203</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.802044868469238</c:v>
+                  <c:v>8.802047729492188</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12.07195091247559</c:v>
+                  <c:v>12.07194900512695</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>12.09477233886719</c:v>
@@ -5993,25 +5993,25 @@
                   <c:v>22.23349189758301</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>21.46368408203125</c:v>
+                  <c:v>21.46368217468262</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.3349781036377</c:v>
+                  <c:v>24.33498001098633</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>33.38051986694336</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>21.53108406066895</c:v>
+                  <c:v>21.53108596801758</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>24.53837013244629</c:v>
+                  <c:v>24.53837203979492</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>15.66311645507812</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>23.97875785827637</c:v>
+                  <c:v>23.978759765625</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>16.53948020935059</c:v>
@@ -6023,7 +6023,7 @@
                   <c:v>29.4057559967041</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.791336059570312</c:v>
+                  <c:v>8.79133415222168</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>18.60768127441406</c:v>
@@ -6035,61 +6035,61 @@
                   <c:v>11.27342414855957</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>18.83823585510254</c:v>
+                  <c:v>18.83823394775391</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>29.25710105895996</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8.679420471191406</c:v>
+                  <c:v>8.679417610168457</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>28.7638111114502</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>14.50319480895996</c:v>
+                  <c:v>14.50319576263428</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>18.31257629394531</c:v>
+                  <c:v>18.31257820129395</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>15.46339702606201</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>33.25423812866211</c:v>
+                  <c:v>33.25424194335938</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>26.5375804901123</c:v>
+                  <c:v>26.53758239746094</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>32.18600463867188</c:v>
+                  <c:v>32.18600845336914</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>12.96222877502441</c:v>
+                  <c:v>12.96222972869873</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>21.00029563903809</c:v>
+                  <c:v>21.00029754638672</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>26.18449592590332</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>19.84012222290039</c:v>
+                  <c:v>19.84012413024902</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>15.06317806243896</c:v>
+                  <c:v>15.06317901611328</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>18.35518646240234</c:v>
+                  <c:v>18.35518836975098</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>21.68107223510742</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>18.4903450012207</c:v>
+                  <c:v>18.49034690856934</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>12.77245330810547</c:v>
+                  <c:v>12.77245044708252</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>18.88205528259277</c:v>
@@ -6098,28 +6098,28 @@
                   <c:v>23.54792404174805</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>26.69999694824219</c:v>
+                  <c:v>26.69999504089355</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>14.51411819458008</c:v>
+                  <c:v>14.51411628723145</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>21.21404457092285</c:v>
+                  <c:v>21.21404647827148</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>16.0565242767334</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>15.41355800628662</c:v>
+                  <c:v>15.41355323791504</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>11.62082862854004</c:v>
+                  <c:v>11.62083053588867</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>21.89029884338379</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>31.59681129455566</c:v>
+                  <c:v>31.59680938720703</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>18.71382141113281</c:v>
@@ -6128,10 +6128,10 @@
                   <c:v>9.207584381103516</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>35.92121505737305</c:v>
+                  <c:v>35.92121887207031</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>20.80067825317383</c:v>
+                  <c:v>20.80068397521973</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>26.03081130981445</c:v>
@@ -6140,13 +6140,13 @@
                   <c:v>12.92751789093018</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>11.25314044952393</c:v>
+                  <c:v>11.25313949584961</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>26.68949699401855</c:v>
+                  <c:v>26.68949890136719</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>14.93283081054688</c:v>
+                  <c:v>14.93282794952393</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>12.98076438903809</c:v>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>8.770896911621094</v>
+        <v>8.77089786529541</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.66695213317871</v>
+        <v>16.66695022583008</v>
       </c>
       <c r="G5">
         <v>78</v>
@@ -6987,7 +6987,7 @@
         <v>47.7145</v>
       </c>
       <c r="F6">
-        <v>23.54201316833496</v>
+        <v>23.54201507568359</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.34885787963867</v>
+        <v>28.3488597869873</v>
       </c>
       <c r="G7">
         <v>78</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>16.11354827880859</v>
+        <v>16.11355018615723</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.77088165283203</v>
+        <v>18.77088356018066</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.69241714477539</v>
+        <v>24.69242095947266</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>11.73189735412598</v>
+        <v>11.73189640045166</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>17.18961906433105</v>
+        <v>17.18961715698242</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.21283721923828</v>
+        <v>21.21284103393555</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>42.8544</v>
       </c>
       <c r="F19">
-        <v>13.17473030090332</v>
+        <v>13.174729347229</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>18.35260772705078</v>
+        <v>18.35260391235352</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.29718208312988</v>
+        <v>23.29718399047852</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>18.43661308288574</v>
+        <v>18.43661499023438</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.17953681945801</v>
+        <v>27.17953491210938</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>57.5132</v>
       </c>
       <c r="F27">
-        <v>37.71633529663086</v>
+        <v>37.71633911132812</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>16.5139217376709</v>
+        <v>16.51391983032227</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>11.02680015563965</v>
+        <v>11.02680110931396</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>58.4079</v>
       </c>
       <c r="F30">
-        <v>30.58891868591309</v>
+        <v>30.58891677856445</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>15.67460536956787</v>
+        <v>15.67461013793945</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>16.38606071472168</v>
+        <v>16.38605880737305</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>21.95420074462891</v>
+        <v>21.95419883728027</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>18.5687084197998</v>
+        <v>18.56871032714844</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>51.0217</v>
       </c>
       <c r="F36">
-        <v>22.78122138977051</v>
+        <v>22.78121948242188</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>37.5985221862793</v>
+        <v>37.59851837158203</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>8.802044868469238</v>
+        <v>8.802047729492188</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>12.07195091247559</v>
+        <v>12.07194900512695</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>21.46368408203125</v>
+        <v>21.46368217468262</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>24.3349781036377</v>
+        <v>24.33498001098633</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>21.53108406066895</v>
+        <v>21.53108596801758</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>24.53837013244629</v>
+        <v>24.53837203979492</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>23.97875785827637</v>
+        <v>23.978759765625</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>8.791336059570312</v>
+        <v>8.79133415222168</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>68.2514</v>
       </c>
       <c r="F56">
-        <v>18.83823585510254</v>
+        <v>18.83823394775391</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>8.679420471191406</v>
+        <v>8.679417610168457</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>56.9723</v>
       </c>
       <c r="F60">
-        <v>14.50319480895996</v>
+        <v>14.50319576263428</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>18.31257629394531</v>
+        <v>18.31257820129395</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>48.1148</v>
       </c>
       <c r="F63">
-        <v>33.25423812866211</v>
+        <v>33.25424194335938</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>26.5375804901123</v>
+        <v>26.53758239746094</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>32.18600463867188</v>
+        <v>32.18600845336914</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>12.96222877502441</v>
+        <v>12.96222972869873</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>21.00029563903809</v>
+        <v>21.00029754638672</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>19.84012222290039</v>
+        <v>19.84012413024902</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.8596</v>
       </c>
       <c r="F70">
-        <v>15.06317806243896</v>
+        <v>15.06317901611328</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>18.35518646240234</v>
+        <v>18.35518836975098</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>18.4903450012207</v>
+        <v>18.49034690856934</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>12.77245330810547</v>
+        <v>12.77245044708252</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>26.69999694824219</v>
+        <v>26.69999504089355</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>14.51411819458008</v>
+        <v>14.51411628723145</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>21.21404457092285</v>
+        <v>21.21404647827148</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>15.41355800628662</v>
+        <v>15.41355323791504</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>11.62082862854004</v>
+        <v>11.62083053588867</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>31.59681129455566</v>
+        <v>31.59680938720703</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>35.92121505737305</v>
+        <v>35.92121887207031</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>20.80067825317383</v>
+        <v>20.80068397521973</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>11.25314044952393</v>
+        <v>11.25313949584961</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>26.68949699401855</v>
+        <v>26.68949890136719</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>14.93283081054688</v>
+        <v>14.93282794952393</v>
       </c>
     </row>
     <row r="94" spans="1:6">
